--- a/Recovery_time/Hamamatsu_S10362-33-025C/res.xlsx
+++ b/Recovery_time/Hamamatsu_S10362-33-025C/res.xlsx
@@ -20,9 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>tau_rise [ns]</t>
+  </si>
+  <si>
+    <t>tau_decay  [ns]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amp </t>
   </si>
 </sst>
 </file>
@@ -446,20 +455,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>73</v>
       </c>

--- a/Recovery_time/Hamamatsu_S10362-33-025C/res.xlsx
+++ b/Recovery_time/Hamamatsu_S10362-33-025C/res.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
